--- a/Worksummary_Nico_Weder_Global_electricity_CO2_Story.xlsx
+++ b/Worksummary_Nico_Weder_Global_electricity_CO2_Story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DVIZ_CODE_FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A27778-E07E-4D09-85E7-5672D677BBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E89158-5ADC-414F-9F5E-0A8CD4BF20BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10AE79A0-740B-4D0A-8059-73B8BDAB0202}"/>
   </bookViews>
@@ -56,15 +56,6 @@
     <t>Nico Weder</t>
   </si>
   <si>
-    <t>Calculated renewable share over total electricity and plotted line chart for global trend</t>
-  </si>
-  <si>
-    <t>Explored LCOE dataset, cleaned data, combined similar technologies (e.g., GT and CC into GAS)</t>
-  </si>
-  <si>
-    <t>Explored CO₂ dataset, merged with energy dataset for latest year, calculated relevant metrics</t>
-  </si>
-  <si>
     <t>Created scatter plot of CO₂ per capita vs renewable share with scaled bubble sizes, added highlights for selected countries</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>Generated HTML output from Quarto, checked if everythings correct</t>
   </si>
   <si>
-    <t>Searched and downloaded datasets: electricity production, LCOE, CO₂ emissions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Created stacked area chart of global electricity production </t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t xml:space="preserve">Created boxplots for LCOE distribution per technology </t>
   </si>
   <si>
-    <t>Explored electricity production dataset, calculated total and renewable shares</t>
-  </si>
-  <si>
     <t>Added hatching and color coding for renewables and nuclear to stacked area chart, changed order of them</t>
   </si>
   <si>
@@ -105,6 +90,21 @@
   </si>
   <si>
     <t>Writing final report: Analysis, Conclusion, Citations, Prepare for submission</t>
+  </si>
+  <si>
+    <t>Searched, explored and downloaded datasets: electricity production, LCOE, CO₂ emissions</t>
+  </si>
+  <si>
+    <t>Further exploration</t>
+  </si>
+  <si>
+    <t>Complete the lineplots for renewable vs fossil and the renewable share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explored LCOE dataset, combined similar technologies and discount rates </t>
+  </si>
+  <si>
+    <t>Merged with energy dataset for latest year, calculated relevant metrics</t>
   </si>
 </sst>
 </file>
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -208,8 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -544,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE518E98-9993-4237-9577-E555D6886B3A}">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,8 +554,8 @@
     <col min="4" max="4" width="126" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -570,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>45983</v>
       </c>
@@ -584,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>45987</v>
       </c>
@@ -592,13 +591,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>45991</v>
       </c>
@@ -612,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>45962</v>
       </c>
@@ -620,13 +619,13 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>45964</v>
       </c>
@@ -634,16 +633,14 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>45979</v>
       </c>
@@ -651,13 +648,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>45981</v>
       </c>
@@ -665,13 +662,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>45983</v>
       </c>
@@ -679,13 +676,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>45986</v>
       </c>
@@ -693,13 +690,13 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>45989</v>
       </c>
@@ -707,49 +704,49 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>45991</v>
       </c>
       <c r="C14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>46009</v>
       </c>
       <c r="C15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>46010</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -763,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -777,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>5</v>
@@ -791,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -805,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>5</v>
@@ -819,7 +816,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>5</v>
